--- a/results/logistic/dilemma/confidence/lossy/avg_scores.xlsx
+++ b/results/logistic/dilemma/confidence/lossy/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="176">
   <si>
     <t>negative</t>
   </si>
@@ -61,207 +61,228 @@
     <t>shit</t>
   </si>
   <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
     <t>boring</t>
   </si>
   <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>woke</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>serious</t>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>insane</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>fucking</t>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>shocking</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>disturbing</t>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>consequences</t>
+  </si>
+  <si>
+    <t>intriguing</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>mad</t>
   </si>
   <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>version</t>
+    <t>active</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>dea</t>
+  </si>
+  <si>
+    <t>guilty</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>realized</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>extremely</t>
   </si>
   <si>
     <t>mit</t>
   </si>
   <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>bias</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>ho</t>
+    <t>around</t>
   </si>
   <si>
     <t>late</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>travels</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>generation</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>chilling</t>
+    <t>study</t>
+  </si>
+  <si>
+    <t>person</t>
   </si>
   <si>
     <t>single</t>
   </si>
   <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>algorithms</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>drugs</t>
   </si>
   <si>
     <t>faster</t>
   </si>
   <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
     <t>spreads</t>
   </si>
   <si>
@@ -271,91 +292,85 @@
     <t>un</t>
   </si>
   <si>
-    <t>way</t>
+    <t>2</t>
   </si>
   <si>
     <t>times</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>industries</t>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>‘</t>
   </si>
   <si>
     <t>customers</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>know</t>
   </si>
   <si>
     <t>users</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>must</t>
-  </si>
-  <si>
     <t>’</t>
   </si>
   <si>
-    <t>media</t>
+    <t>…</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>available</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>pu</t>
+    <t>z</t>
   </si>
   <si>
     <t>free</t>
@@ -364,190 +379,169 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>greatest</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>waiting</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>influence</t>
+  </si>
+  <si>
+    <t>•</t>
   </si>
   <si>
     <t>kind</t>
   </si>
   <si>
-    <t>advanced</t>
-  </si>
-  <si>
-    <t>magic</t>
-  </si>
-  <si>
     <t>ironic</t>
   </si>
   <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>gotten</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>action</t>
   </si>
   <si>
-    <t>discussion</t>
-  </si>
-  <si>
-    <t>consumption</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>design</t>
   </si>
   <si>
     <t>critics</t>
   </si>
   <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>posting</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
-    <t>democracy</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>honestly</t>
+    <t>polar</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>scrolling</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>wonder</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>yesterday</t>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>put</t>
   </si>
   <si>
     <t>real</t>
   </si>
   <si>
-    <t>im</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>mani</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>polar</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>right</t>
   </si>
   <si>
-    <t>u</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>thing</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
     <t>mind</t>
   </si>
   <si>
-    <t>posting</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>dilemma</t>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>watching</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
 </sst>
 </file>
@@ -905,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -974,13 +968,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9393939393939394</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -992,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K3">
-        <v>0.8333333333333334</v>
+        <v>0.86</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1016,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1024,13 +1018,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.8913043478260869</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="C4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1042,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K4">
-        <v>0.8245614035087719</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L4">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="M4">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1066,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1074,13 +1068,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1092,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K5">
-        <v>0.76</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L5">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1145,28 +1139,28 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K6">
-        <v>0.7272727272727273</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L6">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>22</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>8</v>
-      </c>
-      <c r="M6">
-        <v>8</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1174,13 +1168,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1192,31 +1186,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K7">
-        <v>0.7142857142857143</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L7">
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>5</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1224,13 +1218,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6382978723404256</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1242,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K8">
         <v>0.7</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1266,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1274,13 +1268,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1292,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9">
+        <v>0.6</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L9">
-        <v>12</v>
-      </c>
       <c r="M9">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1316,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1324,13 +1318,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.5882352941176471</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1342,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K10">
-        <v>0.6166666666666667</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1366,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1374,13 +1368,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.5714285714285714</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1392,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1416,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1424,13 +1418,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.5652173913043478</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1445,16 +1439,16 @@
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K12">
-        <v>0.5833333333333334</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1466,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1474,13 +1468,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1492,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K13">
         <v>0.5</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1516,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1524,13 +1518,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.5294117647058824</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1545,16 +1539,16 @@
         <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K14">
-        <v>0.5</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1566,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1577,10 +1571,10 @@
         <v>0.5</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1592,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K15">
-        <v>0.4137931034482759</v>
+        <v>0.4</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1616,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1627,10 +1621,10 @@
         <v>0.5</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1642,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K16">
         <v>0.4</v>
@@ -1674,13 +1668,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1692,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K17">
         <v>0.4</v>
@@ -1724,13 +1718,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1742,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K18">
         <v>0.3846153846153846</v>
@@ -1774,13 +1768,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.4857142857142857</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1792,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K19">
         <v>0.375</v>
@@ -1827,10 +1821,10 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1842,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K20">
         <v>0.3333333333333333</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1866,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1895,16 +1889,16 @@
         <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K21">
         <v>0.3333333333333333</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1916,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1924,13 +1918,13 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1942,19 +1936,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K22">
         <v>0.3333333333333333</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1966,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1974,13 +1968,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.4166666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1992,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K23">
         <v>0.3333333333333333</v>
@@ -2024,13 +2018,13 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2042,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K24">
-        <v>0.3333333333333333</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2066,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2077,10 +2071,10 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2092,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K25">
-        <v>0.2941176470588235</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="L25">
         <v>10</v>
@@ -2116,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2124,13 +2118,13 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.3846153846153846</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2142,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K26">
-        <v>0.2857142857142857</v>
+        <v>0.3</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2166,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2174,13 +2168,13 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.3714285714285714</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2192,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K27">
-        <v>0.25</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2216,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2224,13 +2218,13 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.3333333333333333</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2242,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K28">
-        <v>0.25</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2266,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2274,13 +2268,13 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.3333333333333333</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2292,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K29">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -2316,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2324,13 +2318,13 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.3214285714285715</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2342,31 +2336,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K30">
-        <v>0.2142857142857143</v>
+        <v>0.25</v>
       </c>
       <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>3</v>
-      </c>
-      <c r="M30">
-        <v>3</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2374,49 +2368,49 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.3181818181818182</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>7</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>15</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K31">
-        <v>0.2</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2424,13 +2418,13 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2442,19 +2436,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K32">
-        <v>0.2</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2466,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2474,7 +2468,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -2492,19 +2486,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K33">
         <v>0.2</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2516,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2524,31 +2518,31 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>8</v>
       </c>
-      <c r="D34">
-        <v>8</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>20</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K34">
-        <v>0.1875</v>
+        <v>0.2</v>
       </c>
       <c r="L34">
         <v>3</v>
@@ -2566,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2574,13 +2568,13 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2592,19 +2586,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K35">
-        <v>0.1851851851851852</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L35">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M35">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2616,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2624,13 +2618,13 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.25</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2642,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K36">
-        <v>0.1818181818181818</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2666,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2674,13 +2668,13 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2692,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K37">
-        <v>0.180327868852459</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="L37">
         <v>11</v>
@@ -2716,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2724,13 +2718,13 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2742,13 +2736,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K38">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L38">
         <v>2</v>
@@ -2766,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2774,13 +2768,13 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2792,13 +2786,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K39">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -2816,21 +2810,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2842,45 +2836,45 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K40">
-        <v>0.1463414634146341</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>6</v>
-      </c>
-      <c r="M40">
-        <v>6</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2892,19 +2886,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K41">
         <v>0.1428571428571428</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2916,46 +2910,46 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.2105263157894737</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="L42">
         <v>4</v>
       </c>
-      <c r="D42">
+      <c r="M42">
         <v>4</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>15</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K42">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="L42">
-        <v>2</v>
-      </c>
-      <c r="M42">
-        <v>2</v>
-      </c>
       <c r="N42">
         <v>0</v>
       </c>
@@ -2966,21 +2960,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.2105263157894737</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2992,19 +2986,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K43">
-        <v>0.125</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3016,21 +3010,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>0.2</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3042,19 +3036,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K44">
-        <v>0.1212121212121212</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3066,21 +3060,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45">
-        <v>0.1875</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3092,19 +3086,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K45">
-        <v>0.1138433515482696</v>
+        <v>0.125</v>
       </c>
       <c r="L45">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3116,21 +3110,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>973</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3142,13 +3136,13 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K46">
-        <v>0.1126760563380282</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L46">
         <v>8</v>
@@ -3166,21 +3160,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.1666666666666667</v>
+        <v>0.16</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3192,19 +3186,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K47">
-        <v>0.1111111111111111</v>
+        <v>0.1129326047358834</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3216,15 +3210,15 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>8</v>
+        <v>974</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.15</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -3242,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K48">
         <v>0.1111111111111111</v>
@@ -3271,7 +3265,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0.1428571428571428</v>
@@ -3295,7 +3289,7 @@
         <v>12</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K49">
         <v>0.1111111111111111</v>
@@ -3321,7 +3315,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>0.1428571428571428</v>
@@ -3345,7 +3339,7 @@
         <v>6</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K50">
         <v>0.1111111111111111</v>
@@ -3371,7 +3365,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>0.1428571428571428</v>
@@ -3395,16 +3389,16 @@
         <v>12</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K51">
-        <v>0.1076923076923077</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L51">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3416,21 +3410,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52">
-        <v>0.1333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3442,19 +3436,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K52">
-        <v>0.103448275862069</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3466,21 +3460,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3492,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K53">
-        <v>0.1</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3516,21 +3510,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.1333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3542,19 +3536,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K54">
-        <v>0.1</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3566,15 +3560,15 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B55">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3592,19 +3586,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K55">
-        <v>0.09259259259259259</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3616,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3624,13 +3618,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.125</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3642,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K56">
-        <v>0.09090909090909091</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -3666,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3674,13 +3668,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.12</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3692,13 +3686,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K57">
-        <v>0.09090909090909091</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -3716,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3724,13 +3718,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3742,19 +3736,19 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K58">
-        <v>0.08695652173913043</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3766,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3774,7 +3768,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3792,19 +3786,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K59">
-        <v>0.08695652173913043</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3816,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3824,7 +3818,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1111111111111111</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3842,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K60">
-        <v>0.08333333333333333</v>
+        <v>0.0625</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -3866,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3874,13 +3868,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3892,13 +3886,13 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K61">
-        <v>0.07692307692307693</v>
+        <v>0.0625</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -3916,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3945,16 +3939,16 @@
         <v>10</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K62">
-        <v>0.07692307692307693</v>
+        <v>0.0625</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3966,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3995,10 +3989,10 @@
         <v>10</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K63">
-        <v>0.07142857142857142</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -4016,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4024,37 +4018,37 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.08461538461538462</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>11</v>
       </c>
-      <c r="D64">
-        <v>11</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>119</v>
-      </c>
       <c r="J64" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K64">
-        <v>0.06451612903225806</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4066,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4095,10 +4089,10 @@
         <v>11</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K65">
-        <v>0.0625</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -4116,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4124,13 +4118,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.07407407407407407</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4142,19 +4136,19 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K66">
-        <v>0.0625</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="L66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4166,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4174,13 +4168,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0673076923076923</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4192,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K67">
-        <v>0.05555555555555555</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4216,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4224,7 +4218,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06666666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4242,19 +4236,19 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K68">
-        <v>0.05263157894736842</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4266,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4295,16 +4289,16 @@
         <v>14</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K69">
-        <v>0.05263157894736842</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4316,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4324,7 +4318,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.0625</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4342,19 +4336,19 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K70">
-        <v>0.04761904761904762</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4366,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4374,7 +4368,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0625</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4392,13 +4386,13 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K71">
-        <v>0.04761904761904762</v>
+        <v>0.02</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4416,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4424,7 +4418,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.05263157894736842</v>
+        <v>0.0625</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4442,13 +4436,13 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K72">
-        <v>0.04166666666666666</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4466,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4474,7 +4468,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.04761904761904762</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4492,13 +4486,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K73">
-        <v>0.04</v>
+        <v>0.005865102639296188</v>
       </c>
       <c r="L73">
         <v>2</v>
@@ -4516,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>48</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4524,13 +4518,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0425531914893617</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4542,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K74">
-        <v>0.03846153846153846</v>
+        <v>0.001623376623376623</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -4566,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>615</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4574,7 +4568,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.04166666666666666</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4592,31 +4586,31 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="K75">
-        <v>0.025</v>
+        <v>0.001282051282051282</v>
       </c>
       <c r="L75">
         <v>1</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>39</v>
+        <v>779</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4624,13 +4618,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.03883495145631068</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4642,31 +4636,31 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="K76">
-        <v>0.02380952380952381</v>
+        <v>0.001152737752161383</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O76">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>41</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4674,13 +4668,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.025</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4692,31 +4686,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>39</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K77">
-        <v>0.01886792452830189</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4724,7 +4694,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02439024390243903</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4742,31 +4712,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>40</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K78">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4774,13 +4720,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02380952380952381</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4792,31 +4738,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>41</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K79">
-        <v>0.009523809523809525</v>
-      </c>
-      <c r="L79">
-        <v>3</v>
-      </c>
-      <c r="M79">
-        <v>3</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>312</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -4824,13 +4746,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02083333333333333</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4842,39 +4764,15 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>47</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K80">
-        <v>0.003246753246753247</v>
-      </c>
-      <c r="L80">
-        <v>2</v>
-      </c>
-      <c r="M80">
-        <v>2</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.01587301587301587</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4892,45 +4790,21 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>62</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K81">
-        <v>0.001508295625942685</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81">
-        <v>2</v>
-      </c>
-      <c r="N81">
-        <v>0.5</v>
-      </c>
-      <c r="O81">
-        <v>0.5</v>
-      </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.01408450704225352</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4942,45 +4816,21 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>70</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K82">
-        <v>0.001283697047496791</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <v>3</v>
-      </c>
-      <c r="N82">
-        <v>0.67</v>
-      </c>
-      <c r="O82">
-        <v>0.33</v>
-      </c>
-      <c r="P82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0131578947368421</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4992,39 +4842,15 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>75</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K83">
-        <v>0.000576036866359447</v>
-      </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>1</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.01</v>
+        <v>0.025</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -5042,15 +4868,15 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.009900990099009901</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5068,15 +4894,15 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.008771929824561403</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5094,15 +4920,15 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.008695652173913044</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5120,15 +4946,15 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.008</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -5146,21 +4972,21 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.006688963210702341</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5172,15 +4998,15 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.006211180124223602</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5198,59 +5024,189 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002564102564102564</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.001508295625942685</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>0.008</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.007575757575757576</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.006688963210702341</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.001282051282051282</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
         <v>0.5</v>
       </c>
-      <c r="F92">
+      <c r="F96">
         <v>0.5</v>
       </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>662</v>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.0005767012687427913</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>0.33</v>
+      </c>
+      <c r="F97">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1733</v>
       </c>
     </row>
   </sheetData>
